--- a/Problems Sheet.xlsx
+++ b/Problems Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VP\Learning\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69F3D1-D168-4854-A150-D1DC9F4296BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFD140-DDD6-4645-BD5B-333D231F570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Problem Title</t>
   </si>
@@ -146,6 +147,77 @@
     <t>Insertion sort
 Merge sort
 Divide &amp; Conquer</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/largest-rectangle/problem</t>
+  </si>
+  <si>
+    <t>Largest Rectangle</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Stack
+Histogram</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Poisonous Plants</t>
+  </si>
+  <si>
+    <t>Getting largest rectangle from consecutive integers of histogram</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/poisonous-plants/problem</t>
+  </si>
+  <si>
+    <t>And xor Or</t>
+  </si>
+  <si>
+    <t>Bitwise operations &amp;Next Greater Element</t>
+  </si>
+  <si>
+    <t>numeric logic on Next Greater Element</t>
+  </si>
+  <si>
+    <t>Stack
+Next Greater Element</t>
+  </si>
+  <si>
+    <t>Stack
+Next Greater Element
+Bitwise Operations</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/and-xor-or/problem</t>
+  </si>
+  <si>
+    <t>Palindrome Index</t>
+  </si>
+  <si>
+    <t>Palindrome check &amp; convert</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
+  </si>
+  <si>
+    <t>Palindrome
+String Operations</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/palindrome-index/problem</t>
   </si>
 </sst>
 </file>
@@ -263,6 +335,24 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -282,31 +372,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -344,20 +416,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}" name="Table3" displayName="Table3" ref="A1:K7" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:K7" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}" name="Table3" displayName="Table3" ref="A1:K9" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:K9" xr:uid="{1858E770-491F-48DB-8587-80B5100843A1}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{252DF6CF-B83D-48E1-B291-200054638A51}" name="Sr No." dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FE4C0A02-CE36-4B65-A079-8C73B8BA8E4E}" name="Problem Title" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D5D71E6E-FBED-4F05-8347-6304F17DC12B}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{807B1A76-FF31-47EC-AA2C-6C3A7CBB69FA}" name="Difficulty" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{CFD75551-94A3-4F56-879D-5D6E1D0A9E5D}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{252DF6CF-B83D-48E1-B291-200054638A51}" name="Sr No." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FE4C0A02-CE36-4B65-A079-8C73B8BA8E4E}" name="Problem Title" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D5D71E6E-FBED-4F05-8347-6304F17DC12B}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{807B1A76-FF31-47EC-AA2C-6C3A7CBB69FA}" name="Difficulty" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{CFD75551-94A3-4F56-879D-5D6E1D0A9E5D}" name="Status" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{8189DBFD-D44F-44E5-A208-76082EBDE4A3}" name="Topic" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{3A2EE99B-2BBB-461A-B424-13B9D4F66E87}" name="Sub-Topic" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{ACEEDFCA-0B05-4A9E-9B37-9C3368C35AE1}" name="Data Structure" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8923A6FB-244F-4A3A-8E35-203D312839B2}" name="Algorithm/Concept" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B99CD72B-93B3-4DB6-B679-3AFEEE6CAF39}" name="Platform" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7EC9002D-B015-431A-A7C1-32401C3D2279}" name="Link" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{ACEEDFCA-0B05-4A9E-9B37-9C3368C35AE1}" name="Data Structure" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8923A6FB-244F-4A3A-8E35-203D312839B2}" name="Algorithm/Concept" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B99CD72B-93B3-4DB6-B679-3AFEEE6CAF39}" name="Platform" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7EC9002D-B015-431A-A7C1-32401C3D2279}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,61 +894,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -897,11 +1053,15 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{A9B40F5A-A9B8-4761-B98F-848F8F61B3C3}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{6EF8FC65-3FF4-401A-BBA7-41B109A022A2}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{AF7E3786-B722-4B9C-875A-264032CB3FCD}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{84096536-8238-4234-942D-3B687DD459A0}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{EFA9428F-7871-48B4-9360-9F88E740FF7F}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{9872989B-F549-406B-ACCE-2B2D08727218}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{57B760FD-3141-4A6A-88D8-4CFF162E594F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>